--- a/motherboard/Hardware/MotherboardV4.1/Boom/Boom MOtherboardV4.1 pretty.xlsx
+++ b/motherboard/Hardware/MotherboardV4.1/Boom/Boom MOtherboardV4.1 pretty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgewi\Documents\Fynn\Projekte\Balloon\SpiCy-BEXUS\micorcontroller\Hardware\MotherboardV4.1\Boom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgewi\Documents\Fynn\Projekte\Balloon\GitHub\SpiCy-BEXUS\motherboard\Hardware\MotherboardV4.1\Boom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DCF03-E8FD-42C6-8EA1-7D03B7A34A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444899F-803A-4968-B15F-C6F00B32F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56C1C2EF-03F0-4D90-8069-B807006FBC54}"/>
   </bookViews>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3045CC-C364-4D37-B1AB-EFDE6C18D33A}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="92" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="92" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
